--- a/results.xlsx
+++ b/results.xlsx
@@ -35,9 +35,6 @@
     <t>Single</t>
   </si>
   <si>
-    <t>Langeb</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>Spanish</t>
+  </si>
+  <si>
+    <t>SD + Emb</t>
   </si>
 </sst>
 </file>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,16 +437,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -856,7 +856,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
         <v>22.751852470100001</v>
@@ -885,13 +885,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1">
         <v>18.2113563789</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1284,13 +1284,13 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1635,7 +1635,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B72" s="1">
         <v>25.1735590692</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Shared Decoder" sheetId="1" r:id="rId1"/>
+    <sheet name="Separate Decoder" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
   <si>
     <t>Czech</t>
   </si>
@@ -35,22 +36,37 @@
     <t>Single</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>SD w/o CS</t>
-  </si>
-  <si>
-    <t>SD w/o ES</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
     <t>Spanish</t>
   </si>
   <si>
-    <t>SD + Emb</t>
+    <t>SharedDec + Emb</t>
+  </si>
+  <si>
+    <t>SharedDec</t>
+  </si>
+  <si>
+    <t>SharedDec w/o CS</t>
+  </si>
+  <si>
+    <t>SharedDec w/o ES</t>
+  </si>
+  <si>
+    <t>SharedDec + Emb w/o CS</t>
+  </si>
+  <si>
+    <t>SharedDec + Emb w/o ES</t>
+  </si>
+  <si>
+    <t>SepDec + Emb</t>
+  </si>
+  <si>
+    <t>SepDec + SharedAtt</t>
+  </si>
+  <si>
+    <t>SepDec + SepAtt</t>
   </si>
 </sst>
 </file>
@@ -99,7 +115,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -115,15 +131,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -131,6 +152,9 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -138,6 +162,9 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,48 +440,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -464,17 +496,23 @@
       <c r="C3" s="1">
         <v>8.6009568101599996</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
+        <v>7.7873624217800002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.47264175875</v>
+      </c>
+      <c r="F3" s="1">
         <v>7.7022060974300004</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>8.8751977604299999</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>6.81497020673</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -484,17 +522,23 @@
       <c r="C4" s="1">
         <v>12.994769656900001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
+        <v>13.3412144423</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10.4006748324</v>
+      </c>
+      <c r="F4" s="1">
         <v>12.6358840582</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>13.974202035499999</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>11.3929612012</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -504,17 +548,23 @@
       <c r="C5" s="1">
         <v>15.2360211185</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
+        <v>15.8763007936</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13.441293917199999</v>
+      </c>
+      <c r="F5" s="1">
         <v>14.4707347548</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>15.813547604</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>13.863071850000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -524,17 +574,23 @@
       <c r="C6" s="1">
         <v>16.481798715099998</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
+        <v>17.1880772821</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15.138161696199999</v>
+      </c>
+      <c r="F6" s="1">
         <v>15.635916508899999</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>17.2833590093</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>15.241370675300001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -544,17 +600,23 @@
       <c r="C7" s="1">
         <v>17.1067159897</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
+        <v>18.365340443000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15.714564210200001</v>
+      </c>
+      <c r="F7" s="1">
         <v>16.579321928700001</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>17.9527492747</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>16.350100871999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -564,17 +626,23 @@
       <c r="C8" s="1">
         <v>18.1203344971</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
+        <v>18.356669735400001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>16.5873496317</v>
+      </c>
+      <c r="F8" s="1">
         <v>17.0309660703</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>18.536807677500001</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>16.895850417799998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -584,17 +652,23 @@
       <c r="C9" s="1">
         <v>18.4744438912</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
+        <v>19.506030406899999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>17.2063796481</v>
+      </c>
+      <c r="F9" s="1">
         <v>17.029816267400001</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>18.833589984700001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>17.5147768641</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -604,17 +678,23 @@
       <c r="C10" s="1">
         <v>17.708637120700001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
+        <v>19.285026138300001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17.432575316299999</v>
+      </c>
+      <c r="F10" s="1">
         <v>17.303594192999999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>19.289345463899998</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>17.585153323899998</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -624,17 +704,23 @@
       <c r="C11" s="1">
         <v>18.518838563199999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
+        <v>19.6145630633</v>
+      </c>
+      <c r="E11" s="1">
+        <v>17.7269081498</v>
+      </c>
+      <c r="F11" s="1">
         <v>18.064267642099999</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>19.697316276199999</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>17.634327855399999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -644,17 +730,23 @@
       <c r="C12" s="1">
         <v>19.1074627966</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
+        <v>20.4546509111</v>
+      </c>
+      <c r="E12" s="1">
+        <v>17.918035094699999</v>
+      </c>
+      <c r="F12" s="1">
         <v>18.743057601</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <v>19.573909856499998</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <v>17.682724819099999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -664,17 +756,23 @@
       <c r="C13" s="1">
         <v>18.4256369517</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
+        <v>19.994802922400002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>17.816458446799999</v>
+      </c>
+      <c r="F13" s="1">
         <v>18.506897475500001</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <v>20.543415126100001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <v>18.113885261</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -684,17 +782,23 @@
       <c r="C14" s="1">
         <v>18.7467254317</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
+        <v>20.292204485999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>18.6835383405</v>
+      </c>
+      <c r="F14" s="1">
         <v>18.496543699299998</v>
       </c>
-      <c r="E14" s="1">
+      <c r="G14" s="1">
         <v>20.356066376600001</v>
       </c>
-      <c r="F14" s="1">
+      <c r="H14" s="1">
         <v>17.792226106099999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -704,17 +808,23 @@
       <c r="C15" s="1">
         <v>19.6970778385</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
+        <v>20.684178040300001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>18.674325269699999</v>
+      </c>
+      <c r="F15" s="1">
         <v>18.1664931884</v>
       </c>
-      <c r="E15" s="1">
+      <c r="G15" s="1">
         <v>20.580782543200002</v>
       </c>
-      <c r="F15" s="1">
+      <c r="H15" s="1">
         <v>18.725162213899999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -724,17 +834,23 @@
       <c r="C16" s="1">
         <v>19.487408169799998</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
+        <v>20.442139773000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>18.2497841689</v>
+      </c>
+      <c r="F16" s="1">
         <v>18.491605009800001</v>
       </c>
-      <c r="E16" s="1">
+      <c r="G16" s="1">
         <v>20.9843904741</v>
       </c>
-      <c r="F16" s="1">
+      <c r="H16" s="1">
         <v>17.9366488137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -744,17 +860,23 @@
       <c r="C17" s="1">
         <v>19.7709271847</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
+        <v>20.7559063695</v>
+      </c>
+      <c r="E17" s="1">
+        <v>18.535064825100001</v>
+      </c>
+      <c r="F17" s="1">
         <v>18.7472724844</v>
       </c>
-      <c r="E17" s="1">
+      <c r="G17" s="1">
         <v>20.259844072500002</v>
       </c>
-      <c r="F17" s="1">
+      <c r="H17" s="1">
         <v>18.413520672600001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -764,17 +886,23 @@
       <c r="C18" s="1">
         <v>18.913459057899999</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
+        <v>20.970999467199999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>18.980956241200001</v>
+      </c>
+      <c r="F18" s="1">
         <v>19.028891269900001</v>
       </c>
-      <c r="E18" s="1">
+      <c r="G18" s="1">
         <v>21.360954179</v>
       </c>
-      <c r="F18" s="1">
+      <c r="H18" s="1">
         <v>18.222053248000002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -784,17 +912,23 @@
       <c r="C19" s="1">
         <v>19.666082618299999</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
+        <v>22.0057093086</v>
+      </c>
+      <c r="E19" s="1">
+        <v>18.9222088408</v>
+      </c>
+      <c r="F19" s="1">
         <v>18.884476345300001</v>
       </c>
-      <c r="E19" s="1">
+      <c r="G19" s="1">
         <v>20.7748250396</v>
       </c>
-      <c r="F19" s="1">
+      <c r="H19" s="1">
         <v>18.759707647700001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -804,17 +938,23 @@
       <c r="C20" s="1">
         <v>19.729527105799999</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
+        <v>21.3963605193</v>
+      </c>
+      <c r="E20" s="1">
+        <v>19.1480277468</v>
+      </c>
+      <c r="F20" s="1">
         <v>18.727435654400001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="G20" s="1">
         <v>21.181137895700001</v>
       </c>
-      <c r="F20" s="1">
+      <c r="H20" s="1">
         <v>18.816381749800001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -824,17 +964,23 @@
       <c r="C21" s="1">
         <v>19.854574855100001</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
+        <v>21.399944519999998</v>
+      </c>
+      <c r="E21" s="1">
+        <v>18.860210891099999</v>
+      </c>
+      <c r="F21" s="1">
         <v>18.840528319699999</v>
       </c>
-      <c r="E21" s="1">
+      <c r="G21" s="1">
         <v>21.1064718075</v>
       </c>
-      <c r="F21" s="1">
+      <c r="H21" s="1">
         <v>19.166204113799999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -844,19 +990,25 @@
       <c r="C22" s="1">
         <v>19.595777928099999</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
+        <v>21.390758227199999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>19.1304521723</v>
+      </c>
+      <c r="F22" s="1">
         <v>18.526458693399999</v>
       </c>
-      <c r="E22" s="1">
+      <c r="G22" s="1">
         <v>20.853492235299999</v>
       </c>
-      <c r="F22" s="1">
+      <c r="H22" s="1">
         <v>19.121382314000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
         <v>22.751852470100001</v>
@@ -864,38 +1016,45 @@
       <c r="C23" s="1">
         <v>20.3833816022</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
+        <v>22.8647500714</v>
+      </c>
+      <c r="E23" s="1">
+        <v>19.816992667600001</v>
+      </c>
+      <c r="F23" s="1">
         <v>19.7547383641</v>
       </c>
-      <c r="E23" s="1">
+      <c r="G23" s="1">
         <v>22.362332734599999</v>
       </c>
-      <c r="F23" s="1">
+      <c r="H23" s="1">
         <v>19.952789931800002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -905,15 +1064,17 @@
       <c r="C28" s="1">
         <v>7.2612081466399996</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
+        <v>6.32136480586</v>
+      </c>
+      <c r="F28" s="1">
         <v>6.3007967568299996</v>
       </c>
-      <c r="E28" s="1">
+      <c r="H28" s="1">
         <v>6.2491065460100002</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -923,15 +1084,17 @@
       <c r="C29" s="1">
         <v>11.4907254148</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
+        <v>10.3574728444</v>
+      </c>
+      <c r="F29" s="1">
         <v>10.3756146755</v>
       </c>
-      <c r="E29" s="1">
+      <c r="H29" s="1">
         <v>10.4622260085</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -941,15 +1104,17 @@
       <c r="C30" s="1">
         <v>12.778898946</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
+        <v>12.613410386</v>
+      </c>
+      <c r="F30" s="1">
         <v>12.6285997112</v>
       </c>
-      <c r="E30" s="1">
+      <c r="H30" s="1">
         <v>12.4765695411</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -959,15 +1124,17 @@
       <c r="C31" s="1">
         <v>13.948435312000001</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
+        <v>13.7812000151</v>
+      </c>
+      <c r="F31" s="1">
         <v>13.1098635063</v>
       </c>
-      <c r="E31" s="1">
+      <c r="H31" s="1">
         <v>14.1952698243</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -977,15 +1144,17 @@
       <c r="C32" s="1">
         <v>14.7927589706</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
+        <v>14.333657439</v>
+      </c>
+      <c r="F32" s="1">
         <v>14.613099222400001</v>
       </c>
-      <c r="E32" s="1">
+      <c r="H32" s="1">
         <v>14.3221177461</v>
       </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -995,15 +1164,17 @@
       <c r="C33" s="1">
         <v>15.6095883338</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
+        <v>14.733895931099999</v>
+      </c>
+      <c r="F33" s="1">
         <v>14.765292177499999</v>
       </c>
-      <c r="E33" s="1">
+      <c r="H33" s="1">
         <v>15.1627125211</v>
       </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -1013,15 +1184,17 @@
       <c r="C34" s="1">
         <v>16.134673944199999</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
+        <v>15.2757356515</v>
+      </c>
+      <c r="F34" s="1">
         <v>15.2876520908</v>
       </c>
-      <c r="E34" s="1">
+      <c r="H34" s="1">
         <v>15.7014410989</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -1031,15 +1204,17 @@
       <c r="C35" s="1">
         <v>15.396512941399999</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
+        <v>15.725779769700001</v>
+      </c>
+      <c r="F35" s="1">
         <v>15.300281720299999</v>
       </c>
-      <c r="E35" s="1">
+      <c r="H35" s="1">
         <v>15.468426318500001</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -1049,15 +1224,17 @@
       <c r="C36" s="1">
         <v>16.273798252100001</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
+        <v>15.922133466</v>
+      </c>
+      <c r="F36" s="1">
         <v>15.2197394281</v>
       </c>
-      <c r="E36" s="1">
+      <c r="H36" s="1">
         <v>15.878102921</v>
       </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -1067,15 +1244,17 @@
       <c r="C37" s="1">
         <v>16.723317004399998</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
+        <v>16.425594076700001</v>
+      </c>
+      <c r="F37" s="1">
         <v>16.218948857400001</v>
       </c>
-      <c r="E37" s="1">
+      <c r="H37" s="1">
         <v>16.018781952400001</v>
       </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -1085,15 +1264,17 @@
       <c r="C38" s="1">
         <v>16.4797625249</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
+        <v>16.325885681500001</v>
+      </c>
+      <c r="F38" s="1">
         <v>16.2909117986</v>
       </c>
-      <c r="E38" s="1">
+      <c r="H38" s="1">
         <v>16.577646953999999</v>
       </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -1103,15 +1284,17 @@
       <c r="C39" s="1">
         <v>16.442994097</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
+        <v>16.504605333800001</v>
+      </c>
+      <c r="F39" s="1">
         <v>16.357830400499999</v>
       </c>
-      <c r="E39" s="1">
+      <c r="H39" s="1">
         <v>16.4129162415</v>
       </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -1121,15 +1304,17 @@
       <c r="C40" s="1">
         <v>16.777489534000001</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
+        <v>16.559234926399998</v>
+      </c>
+      <c r="F40" s="1">
         <v>16.334334802099999</v>
       </c>
-      <c r="E40" s="1">
+      <c r="H40" s="1">
         <v>16.888343255999999</v>
       </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -1139,15 +1324,17 @@
       <c r="C41" s="1">
         <v>16.966216396899998</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
+        <v>17.206924905800001</v>
+      </c>
+      <c r="F41" s="1">
         <v>16.702507342800001</v>
       </c>
-      <c r="E41" s="1">
+      <c r="H41" s="1">
         <v>16.345476643000001</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -1157,15 +1344,17 @@
       <c r="C42" s="1">
         <v>17.314449976799999</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
+        <v>16.739001358100001</v>
+      </c>
+      <c r="F42" s="1">
         <v>16.3394656585</v>
       </c>
-      <c r="E42" s="1">
+      <c r="H42" s="1">
         <v>16.8232012912</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -1175,15 +1364,17 @@
       <c r="C43" s="1">
         <v>17.064516453300001</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
+        <v>17.413574860800001</v>
+      </c>
+      <c r="F43" s="1">
         <v>17.0195307587</v>
       </c>
-      <c r="E43" s="1">
+      <c r="H43" s="1">
         <v>17.2845226562</v>
       </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -1193,15 +1384,17 @@
       <c r="C44" s="1">
         <v>17.5891187432</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
+        <v>16.862308240099999</v>
+      </c>
+      <c r="F44" s="1">
         <v>16.783348228099999</v>
       </c>
-      <c r="E44" s="1">
+      <c r="H44" s="1">
         <v>17.160834938499999</v>
       </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -1211,15 +1404,17 @@
       <c r="C45" s="1">
         <v>18.018842336999999</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
+        <v>17.423633436500001</v>
+      </c>
+      <c r="F45" s="1">
         <v>16.3869501894</v>
       </c>
-      <c r="E45" s="1">
+      <c r="H45" s="1">
         <v>17.041528435099998</v>
       </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -1229,15 +1424,17 @@
       <c r="C46" s="1">
         <v>17.265323206800002</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
+        <v>17.2952285356</v>
+      </c>
+      <c r="F46" s="1">
         <v>15.9872928804</v>
       </c>
-      <c r="E46" s="1">
+      <c r="H46" s="1">
         <v>17.479100403499999</v>
       </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>20</v>
       </c>
@@ -1247,17 +1444,19 @@
       <c r="C47" s="1">
         <v>17.518657083499999</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
+        <v>17.752836493899999</v>
+      </c>
+      <c r="F47" s="1">
         <v>16.7402937134</v>
       </c>
-      <c r="E47" s="1">
+      <c r="H47" s="1">
         <v>17.073783052500001</v>
       </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B48" s="1">
         <v>18.2113563789</v>
@@ -1265,32 +1464,1251 @@
       <c r="C48" s="1">
         <v>16.8980346359</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
+        <v>16.575988466999998</v>
+      </c>
+      <c r="F48" s="1">
         <v>15.860062169600001</v>
       </c>
-      <c r="E48" s="1">
+      <c r="H48" s="1">
         <v>16.490830479500001</v>
       </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1">
+        <v>11.339141209999999</v>
+      </c>
+      <c r="C52" s="1">
+        <v>9.9127287073199994</v>
+      </c>
+      <c r="D52" s="1">
+        <v>8.9525891747799999</v>
+      </c>
+      <c r="F52" s="1">
+        <v>8.8036494058999999</v>
+      </c>
+      <c r="G52" s="1">
+        <v>9.7818734541199994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1">
+        <v>16.620617467100001</v>
+      </c>
+      <c r="C53" s="1">
+        <v>14.960158158400001</v>
+      </c>
+      <c r="D53" s="1">
+        <v>15.2573131992</v>
+      </c>
+      <c r="F53" s="1">
+        <v>13.3009521658</v>
+      </c>
+      <c r="G53" s="1">
+        <v>15.441323172500001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
+        <v>19.554662280700001</v>
+      </c>
+      <c r="C54" s="1">
+        <v>17.407867925400001</v>
+      </c>
+      <c r="D54" s="1">
+        <v>18.099600503600001</v>
+      </c>
+      <c r="F54" s="1">
+        <v>16.2505127471</v>
+      </c>
+      <c r="G54" s="1">
+        <v>18.348107368000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1">
+        <v>21.498178002</v>
+      </c>
+      <c r="C55" s="1">
+        <v>19.011109399599999</v>
+      </c>
+      <c r="D55" s="1">
+        <v>19.748383713799999</v>
+      </c>
+      <c r="F55" s="1">
+        <v>17.227305620500001</v>
+      </c>
+      <c r="G55" s="1">
+        <v>19.762299546800001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1">
+        <v>21.916371543699999</v>
+      </c>
+      <c r="C56" s="1">
+        <v>19.526312023399999</v>
+      </c>
+      <c r="D56" s="1">
+        <v>21.076044234400001</v>
+      </c>
+      <c r="F56" s="1">
+        <v>18.4287620719</v>
+      </c>
+      <c r="G56" s="1">
+        <v>20.4265582385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>23.1440854067</v>
+      </c>
+      <c r="C57" s="1">
+        <v>20.345282503899998</v>
+      </c>
+      <c r="D57" s="1">
+        <v>21.009246169699999</v>
+      </c>
+      <c r="F57" s="1">
+        <v>18.4504834269</v>
+      </c>
+      <c r="G57" s="1">
+        <v>21.700870602999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1">
+        <v>22.4970036484</v>
+      </c>
+      <c r="C58" s="1">
+        <v>20.4556202363</v>
+      </c>
+      <c r="D58" s="1">
+        <v>21.785332985699998</v>
+      </c>
+      <c r="F58" s="1">
+        <v>18.611628245799999</v>
+      </c>
+      <c r="G58" s="1">
+        <v>21.7190550322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>8</v>
       </c>
+      <c r="B59" s="1">
+        <v>24.0092424461</v>
+      </c>
+      <c r="C59" s="1">
+        <v>20.657496492500002</v>
+      </c>
+      <c r="D59" s="1">
+        <v>22.398707657599999</v>
+      </c>
+      <c r="F59" s="1">
+        <v>18.7726583936</v>
+      </c>
+      <c r="G59" s="1">
+        <v>22.152069727400001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>9</v>
+      </c>
+      <c r="B60" s="1">
+        <v>24.278272342200001</v>
+      </c>
+      <c r="C60" s="1">
+        <v>21.3488912971</v>
+      </c>
+      <c r="D60" s="1">
+        <v>22.621562722099998</v>
+      </c>
+      <c r="F60" s="1">
+        <v>19.977186339700001</v>
+      </c>
+      <c r="G60" s="1">
+        <v>22.573005315700001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1">
+        <v>24.5412810933</v>
+      </c>
+      <c r="C61" s="1">
+        <v>22.0315907317</v>
+      </c>
+      <c r="D61" s="1">
+        <v>22.801980544999999</v>
+      </c>
+      <c r="F61" s="1">
+        <v>20.613926569299998</v>
+      </c>
+      <c r="G61" s="1">
+        <v>22.598617591</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>11</v>
+      </c>
+      <c r="B62" s="1">
+        <v>24.331438587400001</v>
+      </c>
+      <c r="C62" s="1">
+        <v>21.120820297800002</v>
+      </c>
+      <c r="D62" s="1">
+        <v>23.451178990399999</v>
+      </c>
+      <c r="F62" s="1">
+        <v>20.631664733600001</v>
+      </c>
+      <c r="G62" s="1">
+        <v>22.692132378299998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1">
+        <v>24.6106436886</v>
+      </c>
+      <c r="C63" s="1">
+        <v>21.694114630600001</v>
+      </c>
+      <c r="D63" s="1">
+        <v>23.520275333899999</v>
+      </c>
+      <c r="F63" s="1">
+        <v>21.244657826400001</v>
+      </c>
+      <c r="G63" s="1">
+        <v>23.5099257898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1">
+        <v>25.208675570800001</v>
+      </c>
+      <c r="C64" s="1">
+        <v>22.042484526500001</v>
+      </c>
+      <c r="D64" s="1">
+        <v>23.755866525999998</v>
+      </c>
+      <c r="F64" s="1">
+        <v>19.947644610200001</v>
+      </c>
+      <c r="G64" s="1">
+        <v>23.312673195199999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>14</v>
+      </c>
+      <c r="B65" s="1">
+        <v>25.444047381600001</v>
+      </c>
+      <c r="C65" s="1">
+        <v>22.426007077400001</v>
+      </c>
+      <c r="D65" s="1">
+        <v>23.7000920889</v>
+      </c>
+      <c r="F65" s="1">
+        <v>20.8029852636</v>
+      </c>
+      <c r="G65" s="1">
+        <v>23.505334681499999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>15</v>
+      </c>
+      <c r="B66" s="1">
+        <v>25.543844732299998</v>
+      </c>
+      <c r="C66" s="1">
+        <v>22.6044949958</v>
+      </c>
+      <c r="D66" s="1">
+        <v>23.804568084300001</v>
+      </c>
+      <c r="F66" s="1">
+        <v>20.996410760900002</v>
+      </c>
+      <c r="G66" s="1">
+        <v>23.536642196900001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>16</v>
+      </c>
+      <c r="B67" s="1">
+        <v>25.577412990799999</v>
+      </c>
+      <c r="C67" s="1">
+        <v>22.098082197499998</v>
+      </c>
+      <c r="D67" s="1">
+        <v>24.072187745499999</v>
+      </c>
+      <c r="F67" s="1">
+        <v>22.007974927799999</v>
+      </c>
+      <c r="G67" s="1">
+        <v>24.1921311583</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>17</v>
+      </c>
+      <c r="B68" s="1">
+        <v>25.929034142599999</v>
+      </c>
+      <c r="C68" s="1">
+        <v>22.517980141599999</v>
+      </c>
+      <c r="D68" s="1">
+        <v>24.0473058422</v>
+      </c>
+      <c r="F68" s="1">
+        <v>20.814998490499999</v>
+      </c>
+      <c r="G68" s="1">
+        <v>23.432141097700001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>18</v>
+      </c>
+      <c r="B69" s="1">
+        <v>25.7892286529</v>
+      </c>
+      <c r="C69" s="1">
+        <v>22.653577489</v>
+      </c>
+      <c r="D69" s="1">
+        <v>24.233860475099998</v>
+      </c>
+      <c r="F69" s="1">
+        <v>21.059772396900001</v>
+      </c>
+      <c r="G69" s="1">
+        <v>24.070754192700001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>19</v>
+      </c>
+      <c r="B70" s="1">
+        <v>25.148202695799998</v>
+      </c>
+      <c r="C70" s="1">
+        <v>22.9670218445</v>
+      </c>
+      <c r="D70" s="1">
+        <v>23.6091100674</v>
+      </c>
+      <c r="F70" s="1">
+        <v>20.744570079700001</v>
+      </c>
+      <c r="G70" s="1">
+        <v>23.8949775265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>20</v>
+      </c>
+      <c r="B71" s="1">
+        <v>25.756352939500001</v>
+      </c>
+      <c r="C71" s="1">
+        <v>22.879186502300001</v>
+      </c>
+      <c r="D71" s="1">
+        <v>24.2946888538</v>
+      </c>
+      <c r="F71" s="1">
+        <v>21.000994886499999</v>
+      </c>
+      <c r="G71" s="1">
+        <v>23.891328245699999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1">
+        <v>25.1735590692</v>
+      </c>
+      <c r="C72" s="1">
+        <v>22.897535024500002</v>
+      </c>
+      <c r="D72" s="1">
+        <v>24.3459117554</v>
+      </c>
+      <c r="F72" s="1">
+        <v>21.427475877100001</v>
+      </c>
+      <c r="G72" s="1">
+        <v>23.954866029800002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8.3436599674899998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10.387989147900001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10.220181675899999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.8124294747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>13.415230691</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12.6641031365</v>
+      </c>
+      <c r="D4" s="1">
+        <v>14.1817879068</v>
+      </c>
+      <c r="E4" s="1">
+        <v>14.360651405900001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15.964076589399999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>16.538579531</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15.447248606700001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15.945812092200001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>17.778919706700002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17.343283208799999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16.695530357599999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>16.650838726700002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>19.227285950100001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17.383273591799998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>17.352358110600001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>17.0648051083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>19.0625244481</v>
+      </c>
+      <c r="C8" s="1">
+        <v>17.7924226174</v>
+      </c>
+      <c r="D8" s="1">
+        <v>18.219808676</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17.2572333243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>19.8201151351</v>
+      </c>
+      <c r="C9" s="1">
+        <v>18.423744146299999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>18.0118168626</v>
+      </c>
+      <c r="E9" s="1">
+        <v>18.364235928399999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>19.711277316499999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>17.9135586379</v>
+      </c>
+      <c r="D10" s="1">
+        <v>18.355159112199999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17.9339839523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>19.5895068206</v>
+      </c>
+      <c r="C11" s="1">
+        <v>18.405478175799999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>18.505487253199998</v>
+      </c>
+      <c r="E11" s="1">
+        <v>18.578854933599999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20.5432895458</v>
+      </c>
+      <c r="C12" s="1">
+        <v>19.093215761100002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>18.974612979900002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>18.136826662200001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20.941841798199999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>18.845467226099998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>18.436925731500001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>18.305403717600001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>21.127450739</v>
+      </c>
+      <c r="C14" s="1">
+        <v>19.028987859400001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>18.525658444699999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>18.4966900754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>20.450139719199999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>19.475519383999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>19.252847503800002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>18.927411755000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>20.8782866761</v>
+      </c>
+      <c r="C16" s="1">
+        <v>19.394088481699999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>18.968688912099999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>18.890846308299999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>20.969273835100001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>19.654977471500001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>19.186332317000002</v>
+      </c>
+      <c r="E17" s="1">
+        <v>19.212003538800001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>21.222277684400002</v>
+      </c>
+      <c r="C18" s="1">
+        <v>18.985761091099999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>19.274132025</v>
+      </c>
+      <c r="E18" s="1">
+        <v>19.205702430799999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>21.6823718574</v>
+      </c>
+      <c r="C19" s="1">
+        <v>19.317960467500001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>19.084160150500001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>18.657573731900001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>21.678504307699999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19.480425842999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>19.053011607599998</v>
+      </c>
+      <c r="E20" s="1">
+        <v>18.5993437761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>21.301217430099999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19.7937780269</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19.365294404299998</v>
+      </c>
+      <c r="E21" s="1">
+        <v>18.647853464800001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21.683187971900001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>19.683125933900001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>18.997882885300001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>18.658637178100001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22.751852470100001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20.872746876400001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20.0198476586</v>
+      </c>
+      <c r="E23" s="1">
+        <v>19.8515100097</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6.7206549014599997</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5.9172087767399999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7.1753636196599997</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6.6110600585799997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>11.4892049397</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10.503244430800001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>11.1683055824</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10.8168425684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>13.537738963000001</v>
+      </c>
+      <c r="C30" s="1">
+        <v>11.561630961500001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>13.2272006896</v>
+      </c>
+      <c r="E30" s="1">
+        <v>12.446140460800001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>14.3860090958</v>
+      </c>
+      <c r="C31" s="1">
+        <v>13.329223322500001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>14.016090612799999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>13.198946274800001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>15.303526854599999</v>
+      </c>
+      <c r="C32" s="1">
+        <v>13.392563146800001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>14.7089417761</v>
+      </c>
+      <c r="E32" s="1">
+        <v>14.272727261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1">
+        <v>16.186982302899999</v>
+      </c>
+      <c r="C33" s="1">
+        <v>13.2965651333</v>
+      </c>
+      <c r="D33" s="1">
+        <v>15.3682264553</v>
+      </c>
+      <c r="E33" s="1">
+        <v>15.2919786203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1">
+        <v>16.4784296682</v>
+      </c>
+      <c r="C34" s="1">
+        <v>14.905506067299999</v>
+      </c>
+      <c r="D34" s="1">
+        <v>15.6506855443</v>
+      </c>
+      <c r="E34" s="1">
+        <v>15.086986507700001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1">
+        <v>16.927664832400001</v>
+      </c>
+      <c r="C35" s="1">
+        <v>14.8138389347</v>
+      </c>
+      <c r="D35" s="1">
+        <v>16.0078251875</v>
+      </c>
+      <c r="E35" s="1">
+        <v>15.5625951459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1">
+        <v>17.750002595800002</v>
+      </c>
+      <c r="C36" s="1">
+        <v>15.1345981865</v>
+      </c>
+      <c r="D36" s="1">
+        <v>16.0919210341</v>
+      </c>
+      <c r="E36" s="1">
+        <v>15.861388336399999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1">
+        <v>17.503695281300001</v>
+      </c>
+      <c r="C37" s="1">
+        <v>15.1633976284</v>
+      </c>
+      <c r="D37" s="1">
+        <v>16.386081141799998</v>
+      </c>
+      <c r="E37" s="1">
+        <v>15.729221774499999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1">
+        <v>17.758942617700001</v>
+      </c>
+      <c r="C38" s="1">
+        <v>15.440991071799999</v>
+      </c>
+      <c r="D38" s="1">
+        <v>16.1980484676</v>
+      </c>
+      <c r="E38" s="1">
+        <v>16.1357859895</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1">
+        <v>17.7255602159</v>
+      </c>
+      <c r="C39" s="1">
+        <v>14.9297207511</v>
+      </c>
+      <c r="D39" s="1">
+        <v>15.799171790000001</v>
+      </c>
+      <c r="E39" s="1">
+        <v>15.997431757099999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1">
+        <v>18.069178274599999</v>
+      </c>
+      <c r="C40" s="1">
+        <v>15.7709162657</v>
+      </c>
+      <c r="D40" s="1">
+        <v>16.640966071699999</v>
+      </c>
+      <c r="E40" s="1">
+        <v>16.326231160199999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1">
+        <v>18.078566712600001</v>
+      </c>
+      <c r="C41" s="1">
+        <v>15.9616007822</v>
+      </c>
+      <c r="D41" s="1">
+        <v>16.682175514099999</v>
+      </c>
+      <c r="E41" s="1">
+        <v>16.285121558499998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>15</v>
+      </c>
+      <c r="B42" s="1">
+        <v>18.073313409299999</v>
+      </c>
+      <c r="C42" s="1">
+        <v>16.159644296300002</v>
+      </c>
+      <c r="D42" s="1">
+        <v>17.2092703171</v>
+      </c>
+      <c r="E42" s="1">
+        <v>16.482035976399999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1">
+        <v>18.377587765600001</v>
+      </c>
+      <c r="C43" s="1">
+        <v>16.065869598199999</v>
+      </c>
+      <c r="D43" s="1">
+        <v>16.9611657134</v>
+      </c>
+      <c r="E43" s="1">
+        <v>16.5021995934</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>17</v>
+      </c>
+      <c r="B44" s="1">
+        <v>18.421699209</v>
+      </c>
+      <c r="C44" s="1">
+        <v>15.717412959600001</v>
+      </c>
+      <c r="D44" s="1">
+        <v>17.3615773571</v>
+      </c>
+      <c r="E44" s="1">
+        <v>16.331708657499998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>18</v>
+      </c>
+      <c r="B45" s="1">
+        <v>18.6595187231</v>
+      </c>
+      <c r="C45" s="1">
+        <v>15.270910796300001</v>
+      </c>
+      <c r="D45" s="1">
+        <v>16.6798730318</v>
+      </c>
+      <c r="E45" s="1">
+        <v>15.9103061492</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>19</v>
+      </c>
+      <c r="B46" s="1">
+        <v>18.548333685399999</v>
+      </c>
+      <c r="C46" s="1">
+        <v>15.781789570300001</v>
+      </c>
+      <c r="D46" s="1">
+        <v>16.819227206299999</v>
+      </c>
+      <c r="E46" s="1">
+        <v>16.304855825800001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1">
+        <v>18.947201552599999</v>
+      </c>
+      <c r="C47" s="1">
+        <v>16.7658453142</v>
+      </c>
+      <c r="D47" s="1">
+        <v>17.554242223700001</v>
+      </c>
+      <c r="E47" s="1">
+        <v>16.9617188044</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
+        <v>18.2113563789</v>
+      </c>
+      <c r="C48" s="1">
+        <v>16.134686738100001</v>
+      </c>
+      <c r="D48" s="1">
+        <v>16.617775621</v>
+      </c>
+      <c r="E48" s="1">
+        <v>16.842672870299999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D51" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1301,13 +2719,13 @@
         <v>11.339141209999999</v>
       </c>
       <c r="C52" s="1">
-        <v>9.9127287073199994</v>
+        <v>12.8749293667</v>
       </c>
       <c r="D52" s="1">
-        <v>8.8036494058999999</v>
+        <v>12.3721529311</v>
       </c>
       <c r="E52" s="1">
-        <v>9.7818734541199994</v>
+        <v>12.706747504599999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1318,13 +2736,13 @@
         <v>16.620617467100001</v>
       </c>
       <c r="C53" s="1">
-        <v>14.960158158400001</v>
+        <v>16.360674506399999</v>
       </c>
       <c r="D53" s="1">
-        <v>13.3009521658</v>
+        <v>16.9095462105</v>
       </c>
       <c r="E53" s="1">
-        <v>15.441323172500001</v>
+        <v>16.5437076097</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1335,13 +2753,13 @@
         <v>19.554662280700001</v>
       </c>
       <c r="C54" s="1">
-        <v>17.407867925400001</v>
+        <v>18.486311348499999</v>
       </c>
       <c r="D54" s="1">
-        <v>16.2505127471</v>
+        <v>18.2437417742</v>
       </c>
       <c r="E54" s="1">
-        <v>18.348107368000001</v>
+        <v>17.656570401900002</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1352,13 +2770,13 @@
         <v>21.498178002</v>
       </c>
       <c r="C55" s="1">
-        <v>19.011109399599999</v>
+        <v>19.844112921000001</v>
       </c>
       <c r="D55" s="1">
-        <v>17.227305620500001</v>
+        <v>18.967275222800001</v>
       </c>
       <c r="E55" s="1">
-        <v>19.762299546800001</v>
+        <v>18.908558569499998</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1369,13 +2787,13 @@
         <v>21.916371543699999</v>
       </c>
       <c r="C56" s="1">
-        <v>19.526312023399999</v>
+        <v>20.440402716800001</v>
       </c>
       <c r="D56" s="1">
-        <v>18.4287620719</v>
+        <v>19.960368802000001</v>
       </c>
       <c r="E56" s="1">
-        <v>20.4265582385</v>
+        <v>19.586299513</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1386,13 +2804,13 @@
         <v>23.1440854067</v>
       </c>
       <c r="C57" s="1">
-        <v>20.345282503899998</v>
+        <v>21.145309889899998</v>
       </c>
       <c r="D57" s="1">
-        <v>18.4504834269</v>
+        <v>20.527243328800001</v>
       </c>
       <c r="E57" s="1">
-        <v>21.700870602999998</v>
+        <v>20.1990327661</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1403,13 +2821,13 @@
         <v>22.4970036484</v>
       </c>
       <c r="C58" s="1">
-        <v>20.4556202363</v>
+        <v>21.435306741800002</v>
       </c>
       <c r="D58" s="1">
-        <v>18.611628245799999</v>
+        <v>20.965753891399999</v>
       </c>
       <c r="E58" s="1">
-        <v>21.7190550322</v>
+        <v>19.915332947100001</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1420,13 +2838,13 @@
         <v>24.0092424461</v>
       </c>
       <c r="C59" s="1">
-        <v>20.657496492500002</v>
+        <v>21.479037932699999</v>
       </c>
       <c r="D59" s="1">
-        <v>18.7726583936</v>
+        <v>20.8759171614</v>
       </c>
       <c r="E59" s="1">
-        <v>22.152069727400001</v>
+        <v>20.727220434300001</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1437,13 +2855,13 @@
         <v>24.278272342200001</v>
       </c>
       <c r="C60" s="1">
-        <v>21.3488912971</v>
+        <v>21.777727214900001</v>
       </c>
       <c r="D60" s="1">
-        <v>19.977186339700001</v>
+        <v>21.233404264699999</v>
       </c>
       <c r="E60" s="1">
-        <v>22.573005315700001</v>
+        <v>21.102628333599998</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1454,13 +2872,13 @@
         <v>24.5412810933</v>
       </c>
       <c r="C61" s="1">
-        <v>22.0315907317</v>
+        <v>22.181098631600001</v>
       </c>
       <c r="D61" s="1">
-        <v>20.613926569299998</v>
+        <v>21.118072277700001</v>
       </c>
       <c r="E61" s="1">
-        <v>22.598617591</v>
+        <v>20.559479382500001</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1471,13 +2889,13 @@
         <v>24.331438587400001</v>
       </c>
       <c r="C62" s="1">
-        <v>21.120820297800002</v>
+        <v>22.003301453999999</v>
       </c>
       <c r="D62" s="1">
-        <v>20.631664733600001</v>
+        <v>20.520524237299998</v>
       </c>
       <c r="E62" s="1">
-        <v>22.692132378299998</v>
+        <v>21.114878482200002</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1488,13 +2906,13 @@
         <v>24.6106436886</v>
       </c>
       <c r="C63" s="1">
-        <v>21.694114630600001</v>
+        <v>22.008528957700001</v>
       </c>
       <c r="D63" s="1">
-        <v>21.244657826400001</v>
+        <v>21.115650597399998</v>
       </c>
       <c r="E63" s="1">
-        <v>23.5099257898</v>
+        <v>21.012108010999999</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1505,13 +2923,13 @@
         <v>25.208675570800001</v>
       </c>
       <c r="C64" s="1">
-        <v>22.042484526500001</v>
+        <v>22.380754652</v>
       </c>
       <c r="D64" s="1">
-        <v>19.947644610200001</v>
+        <v>21.889915159499999</v>
       </c>
       <c r="E64" s="1">
-        <v>23.312673195199999</v>
+        <v>21.872867839600001</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1522,13 +2940,13 @@
         <v>25.444047381600001</v>
       </c>
       <c r="C65" s="1">
-        <v>22.426007077400001</v>
+        <v>22.2230179807</v>
       </c>
       <c r="D65" s="1">
-        <v>20.8029852636</v>
+        <v>20.964150183099999</v>
       </c>
       <c r="E65" s="1">
-        <v>23.505334681499999</v>
+        <v>21.747915148899999</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1539,13 +2957,13 @@
         <v>25.543844732299998</v>
       </c>
       <c r="C66" s="1">
-        <v>22.6044949958</v>
+        <v>22.540456406800001</v>
       </c>
       <c r="D66" s="1">
-        <v>20.996410760900002</v>
+        <v>21.662303973899999</v>
       </c>
       <c r="E66" s="1">
-        <v>23.536642196900001</v>
+        <v>21.215714256599998</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1556,13 +2974,13 @@
         <v>25.577412990799999</v>
       </c>
       <c r="C67" s="1">
-        <v>22.098082197499998</v>
+        <v>22.1337528613</v>
       </c>
       <c r="D67" s="1">
-        <v>22.007974927799999</v>
+        <v>21.568987699200001</v>
       </c>
       <c r="E67" s="1">
-        <v>24.1921311583</v>
+        <v>21.398871182000001</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1573,13 +2991,13 @@
         <v>25.929034142599999</v>
       </c>
       <c r="C68" s="1">
-        <v>22.517980141599999</v>
+        <v>22.524989516800002</v>
       </c>
       <c r="D68" s="1">
-        <v>20.814998490499999</v>
+        <v>21.5477040544</v>
       </c>
       <c r="E68" s="1">
-        <v>23.432141097700001</v>
+        <v>20.569779544300001</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1590,13 +3008,13 @@
         <v>25.7892286529</v>
       </c>
       <c r="C69" s="1">
-        <v>22.653577489</v>
+        <v>22.7923125097</v>
       </c>
       <c r="D69" s="1">
-        <v>21.059772396900001</v>
+        <v>21.694475392699999</v>
       </c>
       <c r="E69" s="1">
-        <v>24.070754192700001</v>
+        <v>21.443933566999998</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1607,13 +3025,13 @@
         <v>25.148202695799998</v>
       </c>
       <c r="C70" s="1">
-        <v>22.9670218445</v>
+        <v>22.410053999599999</v>
       </c>
       <c r="D70" s="1">
-        <v>20.744570079700001</v>
+        <v>20.8363946357</v>
       </c>
       <c r="E70" s="1">
-        <v>23.8949775265</v>
+        <v>20.941829997799999</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1624,30 +3042,30 @@
         <v>25.756352939500001</v>
       </c>
       <c r="C71" s="1">
-        <v>22.879186502300001</v>
+        <v>22.638541348099999</v>
       </c>
       <c r="D71" s="1">
-        <v>21.000994886499999</v>
+        <v>21.999324939099999</v>
       </c>
       <c r="E71" s="1">
-        <v>23.891328245699999</v>
+        <v>21.329672725599998</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B72" s="1">
         <v>25.1735590692</v>
       </c>
       <c r="C72" s="1">
-        <v>22.897535024500002</v>
+        <v>22.455274022000001</v>
       </c>
       <c r="D72" s="1">
-        <v>21.427475877100001</v>
+        <v>21.5882102835</v>
       </c>
       <c r="E72" s="1">
-        <v>23.954866029800002</v>
+        <v>21.338734690700001</v>
       </c>
     </row>
   </sheetData>
